--- a/client/assets/format_BulkUpload.xlsx
+++ b/client/assets/format_BulkUpload.xlsx
@@ -43,46 +43,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10.000000"/>
-      <color rgb="FF434343"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.000000"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8F9"/>
-        <bgColor rgb="FFF6F8F9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -90,169 +67,16 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color indexed="65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color indexed="65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="2" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -806,92 +630,92 @@
     </row>
     <row r="2" ht="16.5">
       <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" ht="16.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" ht="16.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" ht="16.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" ht="16.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" ht="16.5">
       <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="13"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" ht="14.25">
